--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_1_28.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_1_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2401053.14127239</v>
+        <v>2399165.559755987</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9852075.648704169</v>
+        <v>9852075.648704167</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>242.5156439484329</v>
       </c>
       <c r="G2" t="n">
-        <v>101.3341794774131</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,25 +704,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -756,7 +756,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S3" t="n">
-        <v>156.5912426325231</v>
+        <v>156.5912426325226</v>
       </c>
       <c r="T3" t="n">
         <v>196.8897623984489</v>
@@ -804,7 +804,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773041</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -823,22 +823,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>63.57678144609353</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,16 +859,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>78.13981344678575</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -908,13 +908,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>81.8683443684816</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>212.8719871951471</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1051,22 +1051,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>37.83808333974894</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1111,13 +1111,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>155.2114886365809</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1136,22 +1136,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>178.9687239363112</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>177.6696054408123</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>59.7268375758684</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1345,13 +1345,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>128.7835007017902</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1382,13 +1382,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896913</v>
       </c>
       <c r="H11" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1537,13 +1537,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1576,25 +1576,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>119.9099223396141</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>15.98360398438602</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1780,10 +1780,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
@@ -1825,7 +1825,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>78.37252402362655</v>
+        <v>227.7412454516421</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274137</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1895,7 +1895,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
         <v>251.078595249801</v>
@@ -2002,19 +2002,19 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>117.6385581179198</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2050,13 +2050,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>192.6211591710424</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2141,7 +2141,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174136</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2293,7 +2293,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>203.8435192151914</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>203.8435192151919</v>
       </c>
     </row>
     <row r="23">
@@ -2488,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>5.562624396424664</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>105.2882957363102</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2606,7 +2606,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
-        <v>208.4827883385047</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U26" t="n">
         <v>251.078595249801</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2682,7 +2682,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T27" t="n">
         <v>192.9654699154601</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633775</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,16 +2761,16 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>12.23273337288873</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2779,7 +2779,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>28.12580423844486</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274066</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648052011</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2886,10 +2886,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H30" t="n">
-        <v>94.98542483262919</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014439</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2919,7 +2919,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T30" t="n">
         <v>192.9654699154601</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>124.6287235533803</v>
       </c>
       <c r="C31" t="n">
-        <v>19.67402846882931</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965536</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>91.23070601801214</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437425</v>
+        <v>90.21779139437422</v>
       </c>
       <c r="G31" t="n">
         <v>111.2903118348206</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897913</v>
+        <v>93.7105717389791</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571495</v>
+        <v>7.203899898042422</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523575</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>142.7175533550462</v>
@@ -3013,7 +3013,7 @@
         <v>231.319741708034</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5063987604802</v>
+        <v>170.5063987604801</v>
       </c>
       <c r="Y31" t="n">
         <v>163.3813967235378</v>
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274066</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3123,10 +3123,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H33" t="n">
-        <v>94.98542483262919</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014439</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3156,7 +3156,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T33" t="n">
         <v>192.9654699154601</v>
@@ -3187,25 +3187,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898722</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857175</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692856</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329064</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373698</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789552</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="35">
@@ -3278,13 +3278,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896913</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274066</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3360,10 +3360,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H36" t="n">
-        <v>94.98542483262919</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014439</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3393,7 +3393,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T36" t="n">
         <v>192.9654699154601</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898722</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857175</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692856</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329064</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373699</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H37" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463134</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3481,16 +3481,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="38">
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3661,25 +3661,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D40" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692852</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898721</v>
       </c>
       <c r="D43" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857173</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692855</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329062</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789547</v>
+        <v>80.7819382378955</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898721</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857173</v>
       </c>
       <c r="E46" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692855</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329062</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789546</v>
+        <v>80.7819382378955</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4192,16 +4192,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V46" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W46" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X46" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y46" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
   </sheetData>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>936.2491605982757</v>
+        <v>2310.5492509541</v>
       </c>
       <c r="C2" t="n">
-        <v>567.286643657864</v>
+        <v>1941.586734013689</v>
       </c>
       <c r="D2" t="n">
-        <v>567.286643657864</v>
+        <v>1583.321035406938</v>
       </c>
       <c r="E2" t="n">
-        <v>567.286643657864</v>
+        <v>1197.532782808694</v>
       </c>
       <c r="F2" t="n">
-        <v>156.3007388682565</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4334,7 +4334,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V2" t="n">
-        <v>1662.48357412947</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W2" t="n">
-        <v>1309.714918859356</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X2" t="n">
-        <v>936.2491605982757</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y2" t="n">
-        <v>936.2491605982757</v>
+        <v>2697.149091018222</v>
       </c>
     </row>
     <row r="3">
@@ -4434,16 +4434,16 @@
         <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064342</v>
+        <v>257.3478788207</v>
       </c>
       <c r="C4" t="n">
-        <v>728.1289842064342</v>
+        <v>257.3478788207</v>
       </c>
       <c r="D4" t="n">
-        <v>728.1289842064342</v>
+        <v>257.3478788207</v>
       </c>
       <c r="E4" t="n">
-        <v>663.910013048764</v>
+        <v>257.3478788207</v>
       </c>
       <c r="F4" t="n">
-        <v>517.0200655508536</v>
+        <v>257.3478788207</v>
       </c>
       <c r="G4" t="n">
-        <v>348.0202652891861</v>
+        <v>257.3478788207</v>
       </c>
       <c r="H4" t="n">
-        <v>190.2718927217162</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4507,31 +4507,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>257.3478788207</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>257.3478788207</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>257.3478788207</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>257.3478788207</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>257.3478788207</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064342</v>
+        <v>257.3478788207</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1268.68094731003</v>
+        <v>2001.758776122685</v>
       </c>
       <c r="C5" t="n">
-        <v>1268.68094731003</v>
+        <v>1632.796259182274</v>
       </c>
       <c r="D5" t="n">
-        <v>1268.68094731003</v>
+        <v>1274.530560575523</v>
       </c>
       <c r="E5" t="n">
-        <v>882.8926947117852</v>
+        <v>888.7423079772789</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>477.7564031876713</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>463.8329991262622</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>136.6382791622651</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4568,16 +4568,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4592,25 +4592,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2247.308246834948</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V5" t="n">
-        <v>2247.308246834948</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="W5" t="n">
-        <v>2032.286037546921</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="X5" t="n">
-        <v>1658.820279285841</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="Y5" t="n">
-        <v>1268.68094731003</v>
+        <v>2388.358616186807</v>
       </c>
     </row>
     <row r="6">
@@ -4620,49 +4620,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4683,10 +4683,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>689.9086980046678</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>520.9725150767609</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>370.8558756644252</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>571.3497027553424</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>281.9325327183818</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>982.816591002696</v>
+        <v>1328.4755035807</v>
       </c>
       <c r="C8" t="n">
-        <v>613.8540740622843</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D8" t="n">
-        <v>255.5883754555338</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E8" t="n">
-        <v>74.81188663097703</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036446</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018223</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018223</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>2443.387305656314</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V8" t="n">
-        <v>2112.324418312744</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W8" t="n">
-        <v>1759.555763042629</v>
+        <v>1894.539591564834</v>
       </c>
       <c r="X8" t="n">
-        <v>1759.555763042629</v>
+        <v>1715.075343644822</v>
       </c>
       <c r="Y8" t="n">
-        <v>1369.416431066818</v>
+        <v>1715.075343644822</v>
       </c>
     </row>
     <row r="9">
@@ -4878,28 +4878,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598711</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036446</v>
+        <v>559.1928012785273</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036446</v>
+        <v>409.0761618661916</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036446</v>
+        <v>261.1630682837985</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036446</v>
+        <v>114.2731207858881</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>598.044640063212</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>343.3601518573251</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5024,25 +5024,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5051,13 +5051,13 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5066,10 +5066,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
         <v>4262.357857465301</v>
@@ -5118,25 +5118,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341673</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M12" t="n">
-        <v>1247.466478653857</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>1908.095276920732</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>2187.63534213943</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2392.657822921639</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>244.1070389581962</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="C13" t="n">
-        <v>244.1070389581962</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="D13" t="n">
-        <v>244.1070389581962</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="E13" t="n">
-        <v>244.1070389581962</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="H13" t="n">
         <v>97.21709146028584</v>
@@ -5197,13 +5197,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241956</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
         <v>779.0639759471192</v>
@@ -5212,7 +5212,7 @@
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5224,25 +5224,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1377.795136881525</v>
       </c>
       <c r="T13" t="n">
-        <v>1275.130855347408</v>
+        <v>1154.00972167103</v>
       </c>
       <c r="U13" t="n">
-        <v>986.0022165609662</v>
+        <v>1154.00972167103</v>
       </c>
       <c r="V13" t="n">
-        <v>731.3177283550793</v>
+        <v>1154.00972167103</v>
       </c>
       <c r="W13" t="n">
-        <v>441.9005583181187</v>
+        <v>864.5925516340694</v>
       </c>
       <c r="X13" t="n">
-        <v>425.7555037884359</v>
+        <v>636.6030007360521</v>
       </c>
       <c r="Y13" t="n">
-        <v>425.7555037884359</v>
+        <v>415.8104215925219</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5261,25 +5261,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822461</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602857</v>
       </c>
       <c r="J14" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5288,7 +5288,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5355,25 +5355,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>644.6755122555215</v>
       </c>
       <c r="L15" t="n">
-        <v>901.674922584592</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M15" t="n">
-        <v>1208.995055864553</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N15" t="n">
-        <v>1538.857683528586</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O15" t="n">
-        <v>2208.321444831246</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>676.018967800695</v>
+        <v>414.0663679705858</v>
       </c>
       <c r="C16" t="n">
-        <v>507.0827848727881</v>
+        <v>245.1301850426789</v>
       </c>
       <c r="D16" t="n">
-        <v>507.0827848727881</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E16" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241959</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473454</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1298.996260473454</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U16" t="n">
-        <v>1009.867621687013</v>
+        <v>898.7925182488384</v>
       </c>
       <c r="V16" t="n">
-        <v>755.1831334811258</v>
+        <v>644.1080300429516</v>
       </c>
       <c r="W16" t="n">
-        <v>676.018967800695</v>
+        <v>414.0663679705858</v>
       </c>
       <c r="X16" t="n">
-        <v>676.018967800695</v>
+        <v>414.0663679705858</v>
       </c>
       <c r="Y16" t="n">
-        <v>676.018967800695</v>
+        <v>414.0663679705858</v>
       </c>
     </row>
     <row r="17">
@@ -5492,67 +5492,67 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D17" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V17" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X17" t="n">
         <v>3205.060556590537</v>
@@ -5589,13 +5589,13 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256434</v>
+        <v>233.7852434110091</v>
       </c>
       <c r="K18" t="n">
-        <v>549.5984374701561</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L18" t="n">
         <v>891.4406401619858</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>247.3337308726216</v>
+        <v>531.109187020113</v>
       </c>
       <c r="C19" t="n">
-        <v>247.3337308726216</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5698,25 +5698,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>986.0022165609664</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V19" t="n">
-        <v>731.3177283550795</v>
+        <v>820.5263570570736</v>
       </c>
       <c r="W19" t="n">
-        <v>441.9005583181189</v>
+        <v>531.109187020113</v>
       </c>
       <c r="X19" t="n">
-        <v>247.3337308726216</v>
+        <v>531.109187020113</v>
       </c>
       <c r="Y19" t="n">
-        <v>247.3337308726216</v>
+        <v>531.109187020113</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
@@ -5735,25 +5735,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5768,34 +5768,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5826,31 +5826,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473454</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.21084526296</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U22" t="n">
-        <v>869.3083006011507</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="V22" t="n">
-        <v>614.6238123952638</v>
+        <v>820.5263570570738</v>
       </c>
       <c r="W22" t="n">
-        <v>325.2066423583032</v>
+        <v>531.1091870201132</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028584</v>
+        <v>303.1196361220958</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="23">
@@ -5963,28 +5963,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
         <v>365.8813331823783</v>
@@ -5999,40 +5999,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6063,31 +6063,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P24" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404654</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404654</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404654</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404654</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404654</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6169,28 +6169,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1382.222354598087</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U25" t="n">
-        <v>869.3083006011507</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V25" t="n">
-        <v>614.6238123952638</v>
+        <v>820.5263570570736</v>
       </c>
       <c r="W25" t="n">
-        <v>325.2066423583032</v>
+        <v>714.1745431820128</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028584</v>
+        <v>486.1849922839955</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404654</v>
       </c>
     </row>
     <row r="26">
@@ -6221,37 +6221,37 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514097</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795209</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.1647015151</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619131</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643326</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899129</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014295</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231266</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
@@ -6300,19 +6300,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256436</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277036</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L27" t="n">
-        <v>534.5429807341678</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M27" t="n">
-        <v>1247.466478653857</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N27" t="n">
         <v>2051.878056918008</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>208.7516828383384</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="C28" t="n">
-        <v>208.7516828383384</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="D28" t="n">
-        <v>208.7516828383384</v>
+        <v>560.1954542207689</v>
       </c>
       <c r="E28" t="n">
-        <v>208.7516828383384</v>
+        <v>412.2823606383757</v>
       </c>
       <c r="F28" t="n">
-        <v>208.7516828383384</v>
+        <v>265.3924131404655</v>
       </c>
       <c r="G28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471195</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6409,25 +6409,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S28" t="n">
-        <v>1486.559974221652</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T28" t="n">
-        <v>1262.774559011158</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U28" t="n">
-        <v>973.645920224716</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V28" t="n">
-        <v>718.9614320188291</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="W28" t="n">
-        <v>429.5442619818685</v>
+        <v>920.3704617345005</v>
       </c>
       <c r="X28" t="n">
-        <v>429.5442619818685</v>
+        <v>920.3704617345005</v>
       </c>
       <c r="Y28" t="n">
-        <v>208.7516828383384</v>
+        <v>891.9605584633441</v>
       </c>
     </row>
     <row r="29">
@@ -6437,7 +6437,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
@@ -6446,46 +6446,46 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I29" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J29" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823782</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514089</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014295</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231264</v>
@@ -6497,16 +6497,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6528,7 +6528,7 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
         <v>221.3451287358148</v>
@@ -6537,28 +6537,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256436</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277037</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>534.5429807341679</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1247.466478653856</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918914</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>565.4200295030878</v>
+        <v>494.8466681110218</v>
       </c>
       <c r="C31" t="n">
-        <v>545.5472734739669</v>
+        <v>494.8466681110218</v>
       </c>
       <c r="D31" t="n">
-        <v>451.1914993430019</v>
+        <v>494.8466681110218</v>
       </c>
       <c r="E31" t="n">
-        <v>451.1914993430019</v>
+        <v>402.6944398099994</v>
       </c>
       <c r="F31" t="n">
-        <v>360.0624171264623</v>
+        <v>311.5653575934598</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6479607276536</v>
+        <v>199.1509011946512</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569677</v>
+        <v>104.4937580239651</v>
       </c>
       <c r="I31" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864673</v>
+        <v>164.251007986467</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933503</v>
+        <v>369.08763629335</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667512</v>
+        <v>671.4509053667507</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962057</v>
+        <v>997.6688721962049</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286025</v>
+        <v>1322.864205286024</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353693</v>
+        <v>1611.390407353692</v>
       </c>
       <c r="P31" t="n">
         <v>1842.641396021647</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056075</v>
+        <v>1936.126063056074</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.811824899271</v>
+        <v>1936.126063056074</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.652680096194</v>
+        <v>1791.966918252997</v>
       </c>
       <c r="T31" t="n">
-        <v>1568.628130167071</v>
+        <v>1623.942368323874</v>
       </c>
       <c r="U31" t="n">
-        <v>1335.260356662</v>
+        <v>1390.574594818803</v>
       </c>
       <c r="V31" t="n">
-        <v>1136.336733737484</v>
+        <v>1191.650971894287</v>
       </c>
       <c r="W31" t="n">
-        <v>902.6804289818938</v>
+        <v>957.9946671386967</v>
       </c>
       <c r="X31" t="n">
-        <v>730.4517433652471</v>
+        <v>785.7659815220501</v>
       </c>
       <c r="Y31" t="n">
-        <v>565.4200295030878</v>
+        <v>620.7342676598907</v>
       </c>
     </row>
     <row r="32">
@@ -6677,70 +6677,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155879</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822461</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514078</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.70982261913</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643326</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899129</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207832</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6765,37 +6765,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256436</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277037</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>534.5429807341679</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1247.466478653856</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918914</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108334</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229675</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E34" t="n">
         <v>398.9545963083207</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103131</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
@@ -6859,10 +6859,10 @@
         <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254959</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649695</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6871,16 +6871,16 @@
         <v>1386.860941116388</v>
       </c>
       <c r="O34" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P34" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
         <v>2038.520840384657</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986524</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S34" t="n">
         <v>1865.165908942117</v>
@@ -6895,13 +6895,13 @@
         <v>1304.027639859417</v>
       </c>
       <c r="W34" t="n">
-        <v>1083.430560862498</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045214</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.288612901032</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="35">
@@ -6911,55 +6911,55 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515098</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.70982261913</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643326</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899129</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207832</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -6971,16 +6971,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7002,37 +7002,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256436</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277037</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>534.5429807341679</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1302.91112712663</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918914</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229672</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E37" t="n">
         <v>398.9545963083203</v>
       </c>
       <c r="F37" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103126</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525398</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
         <v>394.6863306254955</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M37" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N37" t="n">
-        <v>1386.860941116389</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O37" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P37" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
-        <v>1996.265827986524</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S37" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T37" t="n">
-        <v>1710.200584771664</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="38">
@@ -7148,7 +7148,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
@@ -7157,34 +7157,34 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
@@ -7208,16 +7208,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7251,25 +7251,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.043068977053</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>1999.905696641086</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.460239110833</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229671</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504511</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G40" t="n">
         <v>221.5295092103129</v>
@@ -7330,13 +7330,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525395</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254953</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649689</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7351,10 +7351,10 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R40" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S40" t="n">
         <v>1865.165908942116</v>
@@ -7372,10 +7372,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045206</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="41">
@@ -7388,28 +7388,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
         <v>889.2841917514085</v>
@@ -7442,16 +7442,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7488,25 +7488,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.043068977053</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>1999.905696641086</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108324</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229665</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506718</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083198</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504505</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103122</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7588,10 +7588,10 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S43" t="n">
         <v>1865.165908942116</v>
@@ -7606,13 +7606,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W43" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.26110100452</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.288612901031</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="44">
@@ -7625,28 +7625,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
         <v>889.2841917514085</v>
@@ -7679,16 +7679,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7734,7 +7734,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
         <v>1558.376451307619</v>
@@ -7743,10 +7743,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.460239110833</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229671</v>
+        <v>559.3441472229667</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506721</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083204</v>
+        <v>398.95459630832</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504511</v>
+        <v>320.8847398504507</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103128</v>
+        <v>221.5295092103124</v>
       </c>
       <c r="H46" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982967</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
         <v>177.05035515254</v>
@@ -7813,7 +7813,7 @@
         <v>709.8489468649691</v>
       </c>
       <c r="M46" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N46" t="n">
         <v>1386.860941116388</v>
@@ -7846,10 +7846,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010316</v>
+        <v>772.2886129010312</v>
       </c>
     </row>
   </sheetData>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>90.64146763747122</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951781</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,13 +8529,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>327.4218609627887</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747169</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8769,13 +8769,13 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>479.3423743435536</v>
@@ -8787,10 +8787,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>145.2351313103793</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9003,13 +9003,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>234.4116509503166</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9018,16 +9018,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>124.3400780863232</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9240,13 +9240,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>96.03744927814711</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>96.03744927814716</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9477,31 +9477,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9714,31 +9714,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>277.6717966208064</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9960,10 +9960,10 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>409.7003683229571</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>423.3376789165115</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -9975,7 +9975,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445213</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10188,31 +10188,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>409.7003683229562</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.7842838544521</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.7164198729791</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10425,31 +10425,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>409.7003683229562</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.7842838544521</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.7164198729791</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,31 +10662,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>423.33767891651</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.7842838544521</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10899,31 +10899,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>52.49733361305277</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,31 +11136,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>52.49733361305277</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11391,13 +11391,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23425,13 +23425,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23464,25 +23464,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>78.01088764398916</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>209.7260514046511</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23668,10 +23668,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>208.1504743129644</v>
+        <v>58.78175288494893</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23890,19 +23890,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>49.60826298070802</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
@@ -23938,13 +23938,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>33.0884962179947</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24181,7 +24181,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>82.39383318338591</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>14.7411341369029</v>
       </c>
     </row>
     <row r="23">
@@ -24376,7 +24376,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -24409,28 +24409,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>192.3581855871786</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>181.2347026002809</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.4192454642719</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,19 +24646,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>109.9643524037927</v>
       </c>
       <c r="S28" t="n">
-        <v>185.6880766107145</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>190.4588491136499</v>
       </c>
     </row>
     <row r="29">
@@ -24835,16 +24835,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533803</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>92.36953600124153</v>
+        <v>112.0435644700708</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>93.41221638965533</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801217</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>48.01208893767254</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>54.76109577523577</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>828289.9634146205</v>
+        <v>828289.9634146203</v>
       </c>
     </row>
     <row r="8">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>828289.9634146204</v>
+        <v>828289.9634146205</v>
       </c>
     </row>
     <row r="11">
@@ -26314,16 +26314,16 @@
         <v>574729.2389049988</v>
       </c>
       <c r="C2" t="n">
-        <v>574729.2389049988</v>
+        <v>574729.2389049989</v>
       </c>
       <c r="D2" t="n">
-        <v>574729.238904999</v>
+        <v>574729.2389049984</v>
       </c>
       <c r="E2" t="n">
-        <v>547440.6836327926</v>
+        <v>547440.6836327924</v>
       </c>
       <c r="F2" t="n">
-        <v>547440.6836327927</v>
+        <v>547440.6836327924</v>
       </c>
       <c r="G2" t="n">
         <v>547440.6836327927</v>
@@ -26335,25 +26335,25 @@
         <v>547440.6836327927</v>
       </c>
       <c r="J2" t="n">
-        <v>547440.6836327924</v>
+        <v>547440.6836327926</v>
       </c>
       <c r="K2" t="n">
         <v>569550.9922833786</v>
       </c>
       <c r="L2" t="n">
-        <v>574729.2389049981</v>
+        <v>574729.2389049988</v>
       </c>
       <c r="M2" t="n">
-        <v>574729.2389049989</v>
+        <v>574729.2389049988</v>
       </c>
       <c r="N2" t="n">
-        <v>574729.2389049982</v>
+        <v>574729.2389049988</v>
       </c>
       <c r="O2" t="n">
-        <v>574729.2389049982</v>
+        <v>574729.2389049978</v>
       </c>
       <c r="P2" t="n">
-        <v>574729.2389049985</v>
+        <v>574729.2389049978</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925934</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284577</v>
+        <v>44162.60530284559</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086689</v>
+        <v>10342.90680086692</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284561</v>
+        <v>44162.60530284559</v>
       </c>
     </row>
     <row r="4">
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>147917.0487159208</v>
+        <v>147917.0487159209</v>
       </c>
       <c r="C4" t="n">
         <v>147917.0487159208</v>
@@ -26427,37 +26427,37 @@
         <v>7916.731656007483</v>
       </c>
       <c r="F4" t="n">
-        <v>7916.731656007497</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="G4" t="n">
+        <v>7916.731656007458</v>
+      </c>
+      <c r="H4" t="n">
+        <v>7916.731656007458</v>
+      </c>
+      <c r="I4" t="n">
+        <v>7916.731656007483</v>
+      </c>
+      <c r="J4" t="n">
         <v>7916.731656007478</v>
       </c>
-      <c r="H4" t="n">
-        <v>7916.731656007484</v>
-      </c>
-      <c r="I4" t="n">
-        <v>7916.731656007484</v>
-      </c>
-      <c r="J4" t="n">
-        <v>7916.731656007354</v>
-      </c>
       <c r="K4" t="n">
-        <v>26081.35417020389</v>
+        <v>26081.35417020401</v>
       </c>
       <c r="L4" t="n">
-        <v>30335.51889732794</v>
+        <v>30335.51889732797</v>
       </c>
       <c r="M4" t="n">
         <v>30335.51889732795</v>
       </c>
       <c r="N4" t="n">
-        <v>30335.51889732796</v>
+        <v>30335.51889732799</v>
       </c>
       <c r="O4" t="n">
-        <v>30335.51889732796</v>
+        <v>30335.51889732795</v>
       </c>
       <c r="P4" t="n">
-        <v>30335.51889732797</v>
+        <v>30335.51889732795</v>
       </c>
     </row>
     <row r="5">
@@ -26473,31 +26473,31 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871668</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022285</v>
+        <v>96628.20853022279</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
         <v>97715.1058200254</v>
@@ -26522,46 +26522,46 @@
         <v>-246014.767088876</v>
       </c>
       <c r="C6" t="n">
-        <v>343953.1121256684</v>
+        <v>343953.1121256686</v>
       </c>
       <c r="D6" t="n">
-        <v>343953.1121256687</v>
+        <v>343953.1121256681</v>
       </c>
       <c r="E6" t="n">
-        <v>-77623.41044882758</v>
+        <v>-77720.86957479999</v>
       </c>
       <c r="F6" t="n">
-        <v>447536.6260280686</v>
+        <v>447439.1669020962</v>
       </c>
       <c r="G6" t="n">
-        <v>447536.6260280686</v>
+        <v>447439.1669020964</v>
       </c>
       <c r="H6" t="n">
-        <v>447536.6260280686</v>
+        <v>447439.1669020964</v>
       </c>
       <c r="I6" t="n">
-        <v>447536.6260280686</v>
+        <v>447439.1669020964</v>
       </c>
       <c r="J6" t="n">
-        <v>271113.4068354751</v>
+        <v>271015.9477095034</v>
       </c>
       <c r="K6" t="n">
-        <v>402678.8242801061</v>
+        <v>402660.3305421719</v>
       </c>
       <c r="L6" t="n">
-        <v>436335.7073867777</v>
+        <v>436335.7073867785</v>
       </c>
       <c r="M6" t="n">
-        <v>311877.5989538084</v>
+        <v>311877.5989538082</v>
       </c>
       <c r="N6" t="n">
-        <v>446678.6141876453</v>
+        <v>446678.6141876454</v>
       </c>
       <c r="O6" t="n">
-        <v>446678.6141876449</v>
+        <v>446678.6141876445</v>
       </c>
       <c r="P6" t="n">
-        <v>402516.0088847996</v>
+        <v>402516.0088847989</v>
       </c>
     </row>
   </sheetData>
@@ -26707,25 +26707,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>55.203256628557</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
     <row r="3">
@@ -26738,46 +26738,46 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
+        <v>377.7436642170867</v>
+      </c>
+      <c r="D3" t="n">
         <v>377.7436642170866</v>
       </c>
-      <c r="D3" t="n">
-        <v>377.7436642170867</v>
-      </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541006</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541009</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541009</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541009</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26811,10 +26811,10 @@
         <v>1215.213643253573</v>
       </c>
       <c r="J4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="K4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="L4" t="n">
         <v>1215.213643253573</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.203256628557</v>
+        <v>55.20325662855698</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108361</v>
+        <v>12.92863350108365</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855698</v>
       </c>
     </row>
     <row r="3">
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370135</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26981,10 +26981,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545563</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.203256628557</v>
+        <v>55.20325662855698</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>164.3604017932786</v>
       </c>
       <c r="G2" t="n">
-        <v>312.4499905433819</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,25 +27424,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27506,7 +27506,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>5.400124791776761e-13</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -27524,7 +27524,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27543,22 +27543,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>82.85718120047564</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,16 +27579,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>146.8952920112985</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27613,13 +27613,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27628,13 +27628,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>70.06297187637965</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>136.3689815222659</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,22 +27771,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>141.9938968421883</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27831,13 +27831,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>96.92615468724711</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27856,22 +27856,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>202.9616461359506</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,28 +27898,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>192.0614952376567</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,28 +28011,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>107.5829646831825</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28065,13 +28065,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>157.4983735401875</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28324,7 +28324,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -29326,7 +29326,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>-2.427693408551725e-12</v>
+        <v>-1.4210854715202e-13</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.203256628557</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="C31" t="n">
-        <v>55.203256628557</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="D31" t="n">
-        <v>55.203256628557</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="E31" t="n">
-        <v>55.203256628557</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="F31" t="n">
-        <v>55.203256628557</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="G31" t="n">
-        <v>55.203256628557</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="H31" t="n">
-        <v>55.203256628557</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="I31" t="n">
-        <v>55.203256628557</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="J31" t="n">
-        <v>55.203256628557</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="K31" t="n">
-        <v>55.203256628557</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="L31" t="n">
-        <v>55.203256628557</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="M31" t="n">
-        <v>55.203256628557</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="N31" t="n">
-        <v>55.203256628557</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="O31" t="n">
-        <v>55.203256628557</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="P31" t="n">
-        <v>55.203256628557</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.203256628557</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="R31" t="n">
-        <v>55.203256628557</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="S31" t="n">
-        <v>55.203256628557</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="T31" t="n">
-        <v>55.203256628557</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="U31" t="n">
-        <v>55.203256628557</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="V31" t="n">
-        <v>55.203256628557</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="W31" t="n">
-        <v>55.203256628557</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="X31" t="n">
-        <v>55.203256628557</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.203256628557</v>
+        <v>55.20325662855702</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="35">
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.70530256582424e-13</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="38">
@@ -30271,7 +30271,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
   </sheetData>
@@ -31039,13 +31039,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31063,22 +31063,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31151,16 +31151,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31197,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,13 +31221,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31236,7 +31236,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31513,46 +31513,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,22 +31695,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31838,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31847,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31865,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32005,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32014,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32023,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32075,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,10 +32084,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32102,10 +32102,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32166,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32461,16 +32461,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32479,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32488,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32497,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,7 +32549,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32558,10 +32558,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32576,10 +32576,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32640,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.634194604149</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304442</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565521</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104652</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33020,43 +33020,43 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127067</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813464</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855528</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458551</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677466</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361493</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H28" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298632</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K28" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L28" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263752</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P28" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337673</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351819</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443619</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444947</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176653</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041491</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304443</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565522</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
-        <v>595.647069592719</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O29" t="n">
-        <v>562.452637254089</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946996</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647499</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104654</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354895</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354104</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
-        <v>17.25001940386727</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127069</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215735</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622985</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724849</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813465</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855529</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458552</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710958</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
-        <v>110.8952201095119</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677467</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361495</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H31" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298633</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J31" t="n">
-        <v>105.8669502822384</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K31" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L31" t="n">
-        <v>222.6241616196126</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171321</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263752</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065634</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P31" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337674</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
-        <v>26.09578805336903</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.39802836989225</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.0816769579135182</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443619</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444947</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176653</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041491</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L32" t="n">
-        <v>526.7962671304443</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565522</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
-        <v>595.647069592719</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O32" t="n">
-        <v>562.452637254089</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946996</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647499</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104654</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2670576580354895</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354104</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
-        <v>17.25001940386727</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127069</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215735</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622985</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724849</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813465</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855529</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458552</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710958</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
-        <v>110.8952201095119</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677467</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361495</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H34" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.03122946298633</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J34" t="n">
-        <v>105.8669502822384</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K34" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L34" t="n">
-        <v>222.6241616196126</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171321</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263752</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
-        <v>211.6522236065634</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P34" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337674</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
-        <v>26.09578805336903</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.39802836989225</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.0816769579135182</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443619</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444947</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176653</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041491</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304443</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565522</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
-        <v>595.647069592719</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O35" t="n">
-        <v>562.452637254089</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946996</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647499</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104654</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2670576580354895</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354104</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
-        <v>17.25001940386727</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127069</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215735</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622985</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724849</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813465</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855529</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458552</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710958</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
-        <v>110.8952201095119</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677467</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361495</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H37" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298633</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J37" t="n">
-        <v>105.8669502822384</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K37" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L37" t="n">
-        <v>222.6241616196126</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171321</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263752</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
-        <v>211.6522236065634</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P37" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337674</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
-        <v>26.09578805336903</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.39802836989225</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.0816769579135182</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33971,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33980,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +33998,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34208,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34217,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34235,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34357,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34375,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34384,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34393,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34436,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34445,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,10 +34454,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34472,10 +34472,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34536,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34548,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34711,10 +34711,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34790,7 +34790,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
@@ -34857,7 +34857,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34872,7 +34872,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,16 +35024,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730631</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,25 +35170,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>365.2844632307152</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>233.2481640954534</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,13 +35647,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>384.9870895382559</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>331.4334930178478</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35817,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35960,13 +35960,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490666</v>
+        <v>137.9476282330538</v>
       </c>
       <c r="K18" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>345.2951542341714</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
         <v>310.4243770504662</v>
@@ -36121,13 +36121,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36291,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O24" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>484.7652115523311</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303332</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221119</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349819</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490674</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879393</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560245</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>720.1247453734236</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415666</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315248</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.01303278507422</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36759,19 +36759,19 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O28" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.2256999718748</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109075</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.329650222112</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081123</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951476</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109127</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502051</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349825</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.9101789549068</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879395</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560246</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>720.1247453734228</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415668</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411085</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315249</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.01303278507427</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.7110267941226</v>
+        <v>67.71102679412255</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584677</v>
+        <v>206.9056851584676</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084857</v>
+        <v>305.4174435084856</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075297</v>
+        <v>329.5130978075296</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341608</v>
+        <v>328.4801344341607</v>
       </c>
       <c r="O31" t="n">
-        <v>291.44060814916</v>
+        <v>291.4406081491599</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403579</v>
+        <v>233.5868572403578</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043185</v>
+        <v>94.42895660043177</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109075</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.329650222112</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081123</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951476</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109127</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502051</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349491</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.9101789549068</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879395</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560246</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>720.1247453734228</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415668</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411085</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315249</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.01303278507427</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,19 +37224,19 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520621</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K34" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L34" t="n">
-        <v>318.3460770095693</v>
+        <v>318.3460770095692</v>
       </c>
       <c r="M34" t="n">
-        <v>342.4417313086133</v>
+        <v>342.4417313086132</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352444</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
         <v>304.3692416502436</v>
@@ -37245,7 +37245,7 @@
         <v>246.5154907414415</v>
       </c>
       <c r="Q34" t="n">
-        <v>107.3575901015155</v>
+        <v>107.3575901015154</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109075</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.329650222112</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081123</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951476</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109127</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502051</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349491</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.9101789549068</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879395</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560246</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004665</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>756.5322523145231</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411085</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315249</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.01303278507427</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37467,13 +37467,13 @@
         <v>219.8343186595513</v>
       </c>
       <c r="L37" t="n">
-        <v>318.3460770095693</v>
+        <v>318.3460770095692</v>
       </c>
       <c r="M37" t="n">
-        <v>342.4417313086133</v>
+        <v>342.4417313086132</v>
       </c>
       <c r="N37" t="n">
-        <v>341.4087679352444</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
         <v>304.3692416502436</v>
@@ -37482,7 +37482,7 @@
         <v>246.5154907414415</v>
       </c>
       <c r="Q37" t="n">
-        <v>107.3575901015155</v>
+        <v>107.3575901015154</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37543,13 +37543,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>334.8610358541609</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520617</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37710,13 +37710,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37780,13 +37780,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>334.8610358541609</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37947,7 +37947,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
         <v>304.3692416502435</v>
@@ -38017,13 +38017,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38102,22 +38102,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
